--- a/QUANGHANH2/excel/TCLD/suat-an/suat-an.xlsx
+++ b/QUANGHANH2/excel/TCLD/suat-an/suat-an.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\project merge\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\TCLD\suat-an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Project\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\TCLD\suat-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B9B369-08B3-4ED6-B4E3-41CD4BF82E20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67EB9FF-4F32-48A8-A2E6-34BAAAF405A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4455" windowWidth="20730" windowHeight="11160" xr2:uid="{50B91E2A-8AE2-4652-98B9-7371C305C6E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50B91E2A-8AE2-4652-98B9-7371C305C6E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
   <si>
     <t>Mã phòng ban</t>
   </si>
@@ -60,13 +60,16 @@
   </si>
   <si>
     <t>Thực tế</t>
+  </si>
+  <si>
+    <t>THEO DÕI SUẤT ĂN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,16 +77,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,16 +113,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,102 +459,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751E253-762F-4D14-84AA-C5FE9C4AB22A}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QUANGHANH2/excel/TCLD/suat-an/suat-an.xlsx
+++ b/QUANGHANH2/excel/TCLD/suat-an/suat-an.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Project\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\TCLD\suat-an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\project merge\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\TCLD\suat-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67EB9FF-4F32-48A8-A2E6-34BAAAF405A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B9B369-08B3-4ED6-B4E3-41CD4BF82E20}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50B91E2A-8AE2-4652-98B9-7371C305C6E9}"/>
+    <workbookView xWindow="28680" yWindow="4455" windowWidth="20730" windowHeight="11160" xr2:uid="{50B91E2A-8AE2-4652-98B9-7371C305C6E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Mã phòng ban</t>
   </si>
@@ -60,16 +60,13 @@
   </si>
   <si>
     <t>Thực tế</t>
-  </si>
-  <si>
-    <t>THEO DÕI SUẤT ĂN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,35 +74,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -113,36 +91,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,132 +417,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751E253-762F-4D14-84AA-C5FE9C4AB22A}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
+  <mergeCells count="8">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
